--- a/Project/TouchGFX/assets/texts/texts.xlsx
+++ b/Project/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="73">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">Temp Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
   </si>
 </sst>
 </file>
@@ -1825,6 +1828,7 @@
         <v>69</v>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Project/TouchGFX/assets/texts/texts.xlsx
+++ b/Project/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="79">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">times.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;temperatur&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;temp&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;X&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;X&gt; °C</t>
   </si>
 </sst>
 </file>
@@ -1545,6 +1563,24 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1750,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
@@ -1723,7 +1759,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1731,7 +1767,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -1748,7 +1784,7 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
@@ -1782,7 +1818,7 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1828,7 +1864,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13"/>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Project/TouchGFX/assets/texts/texts.xlsx
+++ b/Project/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="89">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -252,6 +252,36 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;X&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;temp&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;temp&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P&lt;temperature&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T interna &lt;temperature&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&lt;temp&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T esterna &lt;temp&gt; °C</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1789,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1776,7 +1806,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1881,6 +1911,24 @@
         <v>78</v>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
